--- a/data/professional-personal-timeline.xlsx
+++ b/data/professional-personal-timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliejhadley/Github/visibledata.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69681661-63DA-2A45-8F7C-E852F0EE05D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB82C04-1FCE-FF42-9592-F562D4A16015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1580" windowWidth="36000" windowHeight="21100" activeTab="6" xr2:uid="{C4E1BC44-A1EE-E14F-AF6A-819F6F43557F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{C4E1BC44-A1EE-E14F-AF6A-819F6F43557F}"/>
   </bookViews>
   <sheets>
     <sheet name="Talks" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BE42B2-F60B-804E-A55D-3401A06D7ED7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2403,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BB539-433E-154B-9D97-40C92CFF81AA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+    <sheetView zoomScale="158" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
